--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Русский</t>
   </si>
@@ -61,6 +61,28 @@
   </si>
   <si>
     <t xml:space="preserve">Чтобы добавить канал сначала добавте этого бота в администраторы канала. Далее пришлите сообщение из канала боту. </t>
+  </si>
+  <si>
+    <t>Чтобы добавить inline-клавиатуру к выбранному сообщению, необходимо отправить её в формате: 
+Название кнопки 1 - ссылка1
+Название кнопки 2 - ссылка2
+Например:
+Спасибо, FohBot - https://telegram.org/</t>
+  </si>
+  <si>
+    <t>Клавиатура добавлена</t>
+  </si>
+  <si>
+    <t>Выберите реакцию или добавте свою просто введя смайлы</t>
+  </si>
+  <si>
+    <t>Реакции добавлены</t>
+  </si>
+  <si>
+    <t>Запись будет закреплена</t>
+  </si>
+  <si>
+    <t>Подождите, идет загрузка вложений на сервер….</t>
   </si>
 </sst>
 </file>
@@ -407,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,23 +513,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Русский</t>
   </si>
@@ -83,6 +83,51 @@
   </si>
   <si>
     <t>Подождите, идет загрузка вложений на сервер….</t>
+  </si>
+  <si>
+    <t>Вот предпросмотр.</t>
+  </si>
+  <si>
+    <t>Установите время через которое пост удатится из канала автоматически</t>
+  </si>
+  <si>
+    <t>1 час</t>
+  </si>
+  <si>
+    <t>3 часа</t>
+  </si>
+  <si>
+    <t>6 ч</t>
+  </si>
+  <si>
+    <t>12 ч</t>
+  </si>
+  <si>
+    <t>24 ч</t>
+  </si>
+  <si>
+    <t>48ч</t>
+  </si>
+  <si>
+    <t>7 дней</t>
+  </si>
+  <si>
+    <t>14 дней</t>
+  </si>
+  <si>
+    <t>1 месяц</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Введите дату и время публикации в формате: дд.мм.гггг.чч.мм</t>
+  </si>
+  <si>
+    <t>Время публикации сохранено</t>
+  </si>
+  <si>
+    <t>Пост будет отправлен в назначенное время</t>
   </si>
 </sst>
 </file>
@@ -429,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,46 +589,79 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Русский</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Пост будет отправлен в назначенное время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите реакцию </t>
+  </si>
+  <si>
+    <t>Добавление канала было отменено</t>
   </si>
 </sst>
 </file>
@@ -474,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +670,14 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Русский</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Добавление канала было отменено</t>
+  </si>
+  <si>
+    <t>Настройки поста</t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,9 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -45,13 +45,7 @@
     <t>Этот канал уже добавлен!</t>
   </si>
   <si>
-    <t>Здесь вы можете настроить свои каналы и создать публикации</t>
-  </si>
-  <si>
     <t>Все каналы</t>
-  </si>
-  <si>
-    <t>Отправьте инфо для поста, пожалуйста. Фото\видео\текст\аудио\документ</t>
   </si>
   <si>
     <t>Информация сохранена, вы можете добавить еще</t>
@@ -137,6 +131,16 @@
   </si>
   <si>
     <t>Настройки поста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего каналов: </t>
+  </si>
+  <si>
+    <t>Отправьте содержимое поста (Текст, фото, видео, аудио, документ, gif, хеш-тег)
+• Используйте * (звездочку)  в начале и в конце текста чтобы сделать &lt;b&gt;жирный шрифт&lt;/b&gt;.
+• Используйте _ (нижнее подчеркивание)  в начале и в конце текста чтобы сделать &lt;i&gt;курсивный шрифт&lt;/i&gt;.
+• Используйте ` (апостроф) в начале и в конце текста чтобы сделать &lt;code&gt;выделенный текст&lt;/code&gt;.
+• Для того чтобы использовать Ссылку в тексте напишите в любом месте поста в скобках [Наш канал](https://t.me/Fohbot_News).&lt;a href="https://t.me/Fohbot_News"&gt;Наш канал&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -483,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +533,7 @@
     </row>
     <row r="7" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,147 +548,147 @@
     </row>
     <row r="10" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -139,8 +139,8 @@
     <t>Отправьте содержимое поста (Текст, фото, видео, аудио, документ, gif, хеш-тег)
 • Используйте * (звездочку)  в начале и в конце текста чтобы сделать &lt;b&gt;жирный шрифт&lt;/b&gt;.
 • Используйте _ (нижнее подчеркивание)  в начале и в конце текста чтобы сделать &lt;i&gt;курсивный шрифт&lt;/i&gt;.
-• Используйте ` (апостроф) в начале и в конце текста чтобы сделать &lt;code&gt;выделенный текст&lt;/code&gt;.
-• Для того чтобы использовать Ссылку в тексте напишите в любом месте поста в скобках [Наш канал](https://t.me/Fohbot_News).&lt;a href="https://t.me/Fohbot_News"&gt;Наш канал&lt;/a&gt;</t>
+• Используйте ~ (тильда) в начале и в конце текста чтобы сделать &lt;code&gt;выделенный текст&lt;/code&gt;.
+• Для того чтобы использовать Ссылку в тексте напишите в любом месте поста в скобках [&lt;a href="https://t.me/Fohbot_News"&gt;Наш канал&lt;/a&gt;](https://t.me/Fohbot_News).</t>
   </si>
 </sst>
 </file>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Русский</t>
   </si>
@@ -141,6 +141,19 @@
 • Используйте _ (нижнее подчеркивание)  в начале и в конце текста чтобы сделать &lt;i&gt;курсивный шрифт&lt;/i&gt;.
 • Используйте ~ (тильда) в начале и в конце текста чтобы сделать &lt;code&gt;выделенный текст&lt;/code&gt;.
 • Для того чтобы использовать Ссылку в тексте напишите в любом месте поста в скобках [&lt;a href="https://t.me/Fohbot_News"&gt;Наш канал&lt;/a&gt;](https://t.me/Fohbot_News).</t>
+  </si>
+  <si>
+    <t>Контакт для предложений и пожеланий в развитие бота.</t>
+  </si>
+  <si>
+    <t>📥 Если вы хотите поддержать проект, мы с благодарностью примем Вашу поддержку в любом объеме
+13jtTtFix1ji1j8dzk3WAeo6B1A3hY9FKX</t>
+  </si>
+  <si>
+    <t>Напишите описание к вложению</t>
+  </si>
+  <si>
+    <t>Описание добавлено</t>
   </si>
 </sst>
 </file>
@@ -487,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,17 +704,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+    <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>

--- a/fohbot/leng.xlsx
+++ b/fohbot/leng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Русский</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Пост отправлен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чтобы добавить канал сначала добавте этого бота в администраторы канала. Далее пришлите сообщение из канала боту. </t>
   </si>
   <si>
     <t>Чтобы добавить inline-клавиатуру к выбранному сообщению, необходимо отправить её в формате: 
@@ -146,14 +143,29 @@
     <t>Контакт для предложений и пожеланий в развитие бота.</t>
   </si>
   <si>
-    <t>📥 Если вы хотите поддержать проект, мы с благодарностью примем Вашу поддержку в любом объеме
+    <t>Напишите описание к вложению</t>
+  </si>
+  <si>
+    <t>Описание добавлено</t>
+  </si>
+  <si>
+    <t>Добавьте @fohbot бота в канал и выдайте ему права администратора. Далее  пришлите любое сообщение из канала боту.</t>
+  </si>
+  <si>
+    <t>📥 Если вы хотите поддержать проект, мы с благодарностью примем Вашу поддержку в любом объеме Bitcoin
 13jtTtFix1ji1j8dzk3WAeo6B1A3hY9FKX</t>
   </si>
   <si>
-    <t>Напишите описание к вложению</t>
-  </si>
-  <si>
-    <t>Описание добавлено</t>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Точно удалить канал из списка ваших каналов?</t>
+  </si>
+  <si>
+    <t>Канал удален</t>
   </si>
 </sst>
 </file>
@@ -500,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +558,7 @@
     </row>
     <row r="7" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +573,7 @@
     </row>
     <row r="10" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +583,7 @@
     </row>
     <row r="12" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -586,155 +598,163 @@
     </row>
     <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
